--- a/Milestones v3.xlsx
+++ b/Milestones v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\COM3001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2CF7600-034C-4FA4-B79B-A0BD602BE208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789901C8-564B-4857-BED0-CEC0DF536985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Type</t>
   </si>
@@ -39,9 +39,6 @@
     <t>End date</t>
   </si>
   <si>
-    <t>Duration (in days)</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Project Idea Chosen</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Draft the Literature Review</t>
   </si>
   <si>
@@ -102,12 +96,6 @@
     <t>Script/code the Main Menu Screen</t>
   </si>
   <si>
-    <t>Design/Layout Scene 1</t>
-  </si>
-  <si>
-    <t>Script the Objects in Scene 1</t>
-  </si>
-  <si>
     <t>Main Scripts &amp; Scene 1 complete</t>
   </si>
   <si>
@@ -129,21 +117,9 @@
     <t>Modify Risk Assessment Table</t>
   </si>
   <si>
-    <t>Design/Layout Scene 2</t>
-  </si>
-  <si>
-    <t>Script the Objects in Scene 2</t>
-  </si>
-  <si>
     <t>Test Scene 2</t>
   </si>
   <si>
-    <t>Design/Layout Scene 3</t>
-  </si>
-  <si>
-    <t>Script the Objects in Scene 3</t>
-  </si>
-  <si>
     <t>Book People for Main Experiment</t>
   </si>
   <si>
@@ -184,6 +160,27 @@
   </si>
   <si>
     <t>Final Submission</t>
+  </si>
+  <si>
+    <t>Design All Driving Scenes</t>
+  </si>
+  <si>
+    <t>Test Scene 4</t>
+  </si>
+  <si>
+    <t>Script Scene 2</t>
+  </si>
+  <si>
+    <t>Script Scene 3</t>
+  </si>
+  <si>
+    <t>Script Scene 4</t>
+  </si>
+  <si>
+    <t>Create/Script all of the prefabs (Sat Nav, etc.)</t>
+  </si>
+  <si>
+    <t>Script Scene 1</t>
   </si>
 </sst>
 </file>
@@ -283,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,6 +301,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,17 +589,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F46"/>
+  <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="40.26171875" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -615,16 +618,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="3">
         <v>43747</v>
@@ -632,16 +633,14 @@
       <c r="E2" s="3">
         <v>43761</v>
       </c>
-      <c r="F2" s="2">
-        <v>15</v>
-      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5">
         <v>43754</v>
@@ -649,16 +648,14 @@
       <c r="E3" s="5">
         <v>43770</v>
       </c>
-      <c r="F3" s="4">
-        <v>17</v>
-      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="5">
         <v>43770</v>
@@ -666,16 +663,14 @@
       <c r="E4" s="5">
         <v>43770</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5">
         <v>43770</v>
@@ -683,16 +678,14 @@
       <c r="E5" s="5">
         <v>43783</v>
       </c>
-      <c r="F5" s="4">
-        <v>14</v>
-      </c>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>43770</v>
@@ -700,16 +693,14 @@
       <c r="E6" s="5">
         <v>43783</v>
       </c>
-      <c r="F6" s="4">
-        <v>14</v>
-      </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
         <v>43777</v>
@@ -717,16 +708,14 @@
       <c r="E7" s="5">
         <v>43777</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5">
         <v>43777</v>
@@ -734,16 +723,14 @@
       <c r="E8" s="5">
         <v>43780</v>
       </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5">
         <v>43783</v>
@@ -751,16 +738,14 @@
       <c r="E9" s="5">
         <v>43783</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5">
         <v>43783</v>
@@ -768,16 +753,14 @@
       <c r="E10" s="5">
         <v>43805</v>
       </c>
-      <c r="F10" s="4">
-        <v>23</v>
-      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5">
         <v>43783</v>
@@ -785,16 +768,14 @@
       <c r="E11" s="5">
         <v>43812</v>
       </c>
-      <c r="F11" s="4">
-        <v>30</v>
-      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5">
         <v>43783</v>
@@ -802,16 +783,14 @@
       <c r="E12" s="5">
         <v>43805</v>
       </c>
-      <c r="F12" s="4">
-        <v>23</v>
-      </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5">
         <v>43791</v>
@@ -819,16 +798,14 @@
       <c r="E13" s="5">
         <v>43805</v>
       </c>
-      <c r="F13" s="4">
-        <v>15</v>
-      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5">
         <v>43791</v>
@@ -836,16 +813,14 @@
       <c r="E14" s="5">
         <v>43805</v>
       </c>
-      <c r="F14" s="4">
-        <v>15</v>
-      </c>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5">
         <v>43798</v>
@@ -853,16 +828,14 @@
       <c r="E15" s="5">
         <v>43819</v>
       </c>
-      <c r="F15" s="4">
-        <v>22</v>
-      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5">
         <v>43798</v>
@@ -870,16 +843,14 @@
       <c r="E16" s="5">
         <v>43805</v>
       </c>
-      <c r="F16" s="4">
-        <v>8</v>
-      </c>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5">
         <v>43805</v>
@@ -887,16 +858,14 @@
       <c r="E17" s="5">
         <v>43805</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5">
         <v>43805</v>
@@ -904,84 +873,74 @@
       <c r="E18" s="5">
         <v>43812</v>
       </c>
-      <c r="F18" s="4">
-        <v>8</v>
-      </c>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5">
-        <v>43812</v>
+        <v>43805</v>
       </c>
       <c r="E19" s="5">
-        <v>43819</v>
-      </c>
-      <c r="F19" s="4">
-        <v>8</v>
-      </c>
+        <v>43816</v>
+      </c>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5">
-        <v>43819</v>
+        <v>43816</v>
       </c>
       <c r="E20" s="5">
-        <v>43847</v>
-      </c>
-      <c r="F20" s="4">
-        <v>29</v>
-      </c>
+        <v>43831</v>
+      </c>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5">
-        <v>43847</v>
+        <v>43816</v>
       </c>
       <c r="E21" s="5">
         <v>43847</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D22" s="5">
         <v>43847</v>
       </c>
       <c r="E22" s="5">
-        <v>43861</v>
-      </c>
-      <c r="F22" s="4">
-        <v>15</v>
-      </c>
+        <v>43847</v>
+      </c>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D23" s="5">
         <v>43847</v>
@@ -989,16 +948,14 @@
       <c r="E23" s="5">
         <v>43861</v>
       </c>
-      <c r="F23" s="4">
-        <v>15</v>
-      </c>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D24" s="5">
         <v>43847</v>
@@ -1006,50 +963,44 @@
       <c r="E24" s="5">
         <v>43861</v>
       </c>
-      <c r="F24" s="4">
-        <v>15</v>
-      </c>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D25" s="5">
-        <v>43861</v>
+        <v>43847</v>
       </c>
       <c r="E25" s="5">
         <v>43861</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D26" s="5">
         <v>43861</v>
       </c>
       <c r="E26" s="5">
-        <v>43868</v>
-      </c>
-      <c r="F26" s="4">
-        <v>8</v>
-      </c>
+        <v>43861</v>
+      </c>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D27" s="5">
         <v>43861</v>
@@ -1057,118 +1008,104 @@
       <c r="E27" s="5">
         <v>43868</v>
       </c>
-      <c r="F27" s="4">
-        <v>8</v>
-      </c>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D28" s="5">
+        <v>43861</v>
+      </c>
+      <c r="E28" s="5">
         <v>43868</v>
       </c>
-      <c r="E28" s="5">
-        <v>43871</v>
-      </c>
-      <c r="F28" s="4">
-        <v>4</v>
-      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D29" s="5">
-        <v>43871</v>
+        <v>43868</v>
       </c>
       <c r="E29" s="5">
-        <v>43882</v>
-      </c>
-      <c r="F29" s="4">
-        <v>12</v>
-      </c>
+        <v>43875</v>
+      </c>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5">
-        <v>43882</v>
+        <v>43875</v>
       </c>
       <c r="E30" s="5">
-        <v>43885</v>
-      </c>
-      <c r="F30" s="4">
-        <v>4</v>
-      </c>
+        <v>43878</v>
+      </c>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D31" s="5">
+        <v>43878</v>
+      </c>
+      <c r="E31" s="5">
         <v>43885</v>
       </c>
-      <c r="E31" s="5">
-        <v>43889</v>
-      </c>
-      <c r="F31" s="4">
-        <v>5</v>
-      </c>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D32" s="5">
+        <v>43885</v>
+      </c>
+      <c r="E32" s="5">
         <v>43889</v>
       </c>
-      <c r="E32" s="5">
-        <v>43897</v>
-      </c>
-      <c r="F32" s="4">
-        <v>9</v>
-      </c>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D33" s="5">
+        <v>43889</v>
+      </c>
+      <c r="E33" s="5">
         <v>43896</v>
       </c>
-      <c r="E33" s="5">
-        <v>43901</v>
-      </c>
-      <c r="F33" s="4">
-        <v>6</v>
-      </c>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D34" s="5">
         <v>43896</v>
@@ -1176,213 +1113,202 @@
       <c r="E34" s="5">
         <v>43901</v>
       </c>
-      <c r="F34" s="4">
-        <v>6</v>
-      </c>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D35" s="5">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="E35" s="5">
         <v>43901</v>
       </c>
-      <c r="F35" s="4">
-        <v>5</v>
-      </c>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D36" s="5">
-        <v>43901</v>
+        <v>43896</v>
       </c>
       <c r="E36" s="5">
         <v>43901</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D37" s="5">
         <v>43901</v>
       </c>
       <c r="E37" s="5">
-        <v>43903</v>
-      </c>
-      <c r="F37" s="4">
-        <v>3</v>
-      </c>
+        <v>43901</v>
+      </c>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D38" s="5">
+        <v>43901</v>
+      </c>
+      <c r="E38" s="5">
         <v>43903</v>
       </c>
-      <c r="E38" s="5">
-        <v>43914</v>
-      </c>
-      <c r="F38" s="4">
-        <v>12</v>
-      </c>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D39" s="5">
-        <v>43914</v>
+        <v>43903</v>
       </c>
       <c r="E39" s="5">
         <v>43914</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D40" s="5">
-        <v>43931</v>
+        <v>43914</v>
       </c>
       <c r="E40" s="5">
-        <v>43931</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>43914</v>
+      </c>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D41" s="5">
         <v>43931</v>
       </c>
       <c r="E41" s="5">
-        <v>43938</v>
-      </c>
-      <c r="F41" s="4">
-        <v>8</v>
-      </c>
+        <v>43931</v>
+      </c>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D42" s="5">
+        <v>43931</v>
+      </c>
+      <c r="E42" s="5">
         <v>43938</v>
       </c>
-      <c r="E42" s="5">
-        <v>43952</v>
-      </c>
-      <c r="F42" s="4">
-        <v>15</v>
-      </c>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D43" s="5">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="E43" s="5">
         <v>43952</v>
       </c>
-      <c r="F43" s="4">
-        <v>8</v>
-      </c>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D44" s="5">
-        <v>43952</v>
+        <v>43945</v>
       </c>
       <c r="E44" s="5">
         <v>43952</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D45" s="5">
+        <v>43952</v>
+      </c>
+      <c r="E45" s="5">
+        <v>43952</v>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="5">
         <v>43966</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <v>43966</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="7">
         <v>43977</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="7">
         <v>43977</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="F47" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
